--- a/data/trans_orig/P50_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P50_1-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>15475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9022</v>
+        <v>8968</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24187</v>
+        <v>25016</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02724038770295593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01588176918205987</v>
+        <v>0.01578691149185245</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04257610385641983</v>
+        <v>0.04403483683619913</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -763,19 +763,19 @@
         <v>3042</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8296</v>
+        <v>8419</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01170873595408648</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003759167819839063</v>
+        <v>0.003734905910693261</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03193382722894506</v>
+        <v>0.03241008360010541</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>18</v>
@@ -784,19 +784,19 @@
         <v>18517</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10428</v>
+        <v>10499</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29420</v>
+        <v>27695</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0223667526246549</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01259651949386236</v>
+        <v>0.01268256657422226</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03553787242179692</v>
+        <v>0.03345324464453533</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>22439</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14200</v>
+        <v>14465</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>32566</v>
+        <v>34766</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03949965141552543</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02499678070806376</v>
+        <v>0.02546335040356857</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05732615545203391</v>
+        <v>0.06119735570959758</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>6</v>
@@ -834,19 +834,19 @@
         <v>6385</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2152</v>
+        <v>2154</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12778</v>
+        <v>12931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0245804545547557</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.008283032273406033</v>
+        <v>0.008293438450427968</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04919006285039605</v>
+        <v>0.04977690227520586</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>28</v>
@@ -855,19 +855,19 @@
         <v>28825</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>19665</v>
+        <v>19212</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>40817</v>
+        <v>40952</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03481819690338582</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02375451724513037</v>
+        <v>0.02320716500592713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04930365759074753</v>
+        <v>0.04946656384746678</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>12943</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6878</v>
+        <v>6887</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>21716</v>
+        <v>21692</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0227826359859383</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01210804185913188</v>
+        <v>0.01212299144717219</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03822557702575585</v>
+        <v>0.03818394021582624</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -905,19 +905,19 @@
         <v>5267</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2019</v>
+        <v>1995</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12358</v>
+        <v>11583</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02027464863166607</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007770485155962003</v>
+        <v>0.007679563626832872</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0475723591867407</v>
+        <v>0.04458875391853786</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>18</v>
@@ -926,19 +926,19 @@
         <v>18209</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11428</v>
+        <v>11094</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>28762</v>
+        <v>28543</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02199566140375284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01380450459749093</v>
+        <v>0.01340125909844217</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03474195148721961</v>
+        <v>0.03447742079029863</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>517233</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>503480</v>
+        <v>501637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>530036</v>
+        <v>529709</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9104773248955803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8862688221143351</v>
+        <v>0.883023661211697</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.933013514683891</v>
+        <v>0.932438099565453</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>229</v>
@@ -976,19 +976,19 @@
         <v>245079</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235586</v>
+        <v>236453</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>251257</v>
+        <v>251216</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9434361608594918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.906891409502669</v>
+        <v>0.9102308296576896</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9672168442792094</v>
+        <v>0.9670613851315405</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>714</v>
@@ -997,19 +997,19 @@
         <v>762312</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>744247</v>
+        <v>745549</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>775857</v>
+        <v>777451</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9208193890682065</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8989981246204685</v>
+        <v>0.9005699408012657</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9371803370677656</v>
+        <v>0.9391057027514987</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>34220</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>23467</v>
+        <v>23899</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>48299</v>
+        <v>48179</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02129678880758207</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0146044164062237</v>
+        <v>0.01487362393554255</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03005846238704811</v>
+        <v>0.02998373571857272</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>15</v>
@@ -1122,19 +1122,19 @@
         <v>15898</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>9137</v>
+        <v>9039</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>25625</v>
+        <v>25653</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01560348671119995</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.008967496207964559</v>
+        <v>0.008871708335547682</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02515088581878732</v>
+        <v>0.0251784598588263</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>48</v>
@@ -1143,19 +1143,19 @@
         <v>50118</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>36468</v>
+        <v>37612</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>64946</v>
+        <v>66258</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01908758772746528</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01388896671840704</v>
+        <v>0.01432459874195648</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02473480052934714</v>
+        <v>0.02523433139797844</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>38231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27462</v>
+        <v>26677</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52767</v>
+        <v>51693</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02379300359535053</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01709069382361824</v>
+        <v>0.01660208193854784</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03283889696997608</v>
+        <v>0.03217061053781658</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -1193,19 +1193,19 @@
         <v>22670</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13889</v>
+        <v>15177</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33012</v>
+        <v>34402</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02225053790573124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01363201658788888</v>
+        <v>0.01489612275405885</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0324012124220944</v>
+        <v>0.03376560030984298</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>58</v>
@@ -1214,19 +1214,19 @@
         <v>60902</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46928</v>
+        <v>47511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>78765</v>
+        <v>78284</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02319447275861249</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01787274761409691</v>
+        <v>0.01809460640226763</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02999791436936534</v>
+        <v>0.0298144508929632</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>55699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>43001</v>
+        <v>42740</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>72013</v>
+        <v>71845</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03466393539768959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02676159255245526</v>
+        <v>0.02659907042806766</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04481689146919299</v>
+        <v>0.04471197958927138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -1264,19 +1264,19 @@
         <v>19735</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>13020</v>
+        <v>12696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>29743</v>
+        <v>29899</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01936935842915802</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01277940839069253</v>
+        <v>0.01246100773873431</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02919198390352967</v>
+        <v>0.0293457194668696</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>74</v>
@@ -1285,19 +1285,19 @@
         <v>75434</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>59131</v>
+        <v>58913</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>94651</v>
+        <v>94132</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0287291026087742</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02252028761809512</v>
+        <v>0.02243726276650487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03604792842557868</v>
+        <v>0.03585027782131853</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>1478681</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1454421</v>
+        <v>1455307</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1500398</v>
+        <v>1498819</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9202462721993778</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9051479959567391</v>
+        <v>0.9056993342470357</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9337618839748596</v>
+        <v>0.932779117787442</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>887</v>
@@ -1335,19 +1335,19 @@
         <v>960558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>943921</v>
+        <v>943872</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>974225</v>
+        <v>973858</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9427766169539108</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9264469209254672</v>
+        <v>0.9263989933116321</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9561900959633354</v>
+        <v>0.9558299021056997</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2282</v>
@@ -1356,19 +1356,19 @@
         <v>2439240</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2409646</v>
+        <v>2412598</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2465195</v>
+        <v>2465198</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.928988836905148</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9177176424931892</v>
+        <v>0.9188421039525884</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9388738613278605</v>
+        <v>0.9388748025360211</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>6907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3074</v>
+        <v>2907</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>13898</v>
+        <v>13386</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01562825068966079</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.006954475354838468</v>
+        <v>0.006576296218371235</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03144476776535597</v>
+        <v>0.03028705481297809</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6492</v>
+        <v>7002</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005405539498187078</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01747199374113293</v>
+        <v>0.01884517490428225</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -1502,19 +1502,19 @@
         <v>8916</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3955</v>
+        <v>4017</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15830</v>
+        <v>15966</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01095925617986265</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004860888031582185</v>
+        <v>0.004937762645934309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01945790424223732</v>
+        <v>0.01962524730991973</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>5414</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1070</v>
+        <v>1885</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15676</v>
+        <v>14094</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01225037503290794</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002420889371499532</v>
+        <v>0.004265313683091871</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03546854943486672</v>
+        <v>0.03188912992004249</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>2</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>7750</v>
+        <v>7092</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.005988697343894696</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02085828823857519</v>
+        <v>0.01908707430424382</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>6</v>
@@ -1573,19 +1573,19 @@
         <v>7640</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>3094</v>
+        <v>3134</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16518</v>
+        <v>17570</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.009390493910910435</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003802517885706873</v>
+        <v>0.003852456691064157</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02030350290598607</v>
+        <v>0.02159736972329159</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>18249</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10837</v>
+        <v>10774</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28499</v>
+        <v>27932</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04128878975158791</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02451953970651664</v>
+        <v>0.02437770234567372</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06448008797455551</v>
+        <v>0.06319662342765743</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -1623,19 +1623,19 @@
         <v>2886</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>931</v>
+        <v>941</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7749</v>
+        <v>8380</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007765953013070171</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.002505130454138649</v>
+        <v>0.002533591043350026</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02085531321177983</v>
+        <v>0.0225519109974877</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -1644,19 +1644,19 @@
         <v>21134</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13781</v>
+        <v>13188</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>32201</v>
+        <v>31967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02597798445215396</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01693880735165787</v>
+        <v>0.01621094891327747</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03958114178098558</v>
+        <v>0.03929294667264198</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>411408</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>398580</v>
+        <v>398324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>420367</v>
+        <v>421643</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9308325845258434</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9018092867804419</v>
+        <v>0.9012304877812429</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9511037285039715</v>
+        <v>0.953991355928829</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>330</v>
@@ -1694,19 +1694,19 @@
         <v>364451</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>357993</v>
+        <v>357274</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>368576</v>
+        <v>368499</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.980839810144848</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9634601079462375</v>
+        <v>0.9615240872355213</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9919422247875048</v>
+        <v>0.9917358717174831</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>707</v>
@@ -1715,19 +1715,19 @@
         <v>775858</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>763311</v>
+        <v>762329</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>787575</v>
+        <v>786866</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.953672265457073</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9382492638723429</v>
+        <v>0.9370426812168202</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9680739654373619</v>
+        <v>0.9672023622946579</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>56603</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>42998</v>
+        <v>43035</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>72679</v>
+        <v>73736</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02162967457721049</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01643073312572542</v>
+        <v>0.01644499608611586</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02777277903377026</v>
+        <v>0.02817673423907154</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>20</v>
@@ -1840,19 +1840,19 @@
         <v>20948</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>12617</v>
+        <v>13027</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>31352</v>
+        <v>31698</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01269415028802527</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007645748096837735</v>
+        <v>0.007894057963297405</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01899909525956659</v>
+        <v>0.01920868852904421</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>75</v>
@@ -1861,19 +1861,19 @@
         <v>77551</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>61539</v>
+        <v>61473</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>96112</v>
+        <v>98290</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01817406717085033</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01442165107060271</v>
+        <v>0.01440622493926377</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02252396285026553</v>
+        <v>0.02303425983126033</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>66085</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>52117</v>
+        <v>50167</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>87127</v>
+        <v>83598</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0252532039522339</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01991553909852044</v>
+        <v>0.01917021468000421</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03329388034319924</v>
+        <v>0.03194554979065815</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>30</v>
@@ -1911,19 +1911,19 @@
         <v>31281</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>20982</v>
+        <v>20616</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>43236</v>
+        <v>43392</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0189556976315037</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01271507035323079</v>
+        <v>0.01249323365503429</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0262004893250138</v>
+        <v>0.02629468126273113</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>92</v>
@@ -1932,19 +1932,19 @@
         <v>97366</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>79092</v>
+        <v>80205</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>118813</v>
+        <v>119443</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02281778899736061</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01853523119208211</v>
+        <v>0.01879619701143534</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02784387518678177</v>
+        <v>0.02799150732574887</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>86890</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>70569</v>
+        <v>69459</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>106614</v>
+        <v>105814</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03320357970000785</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02696667438140361</v>
+        <v>0.0265424304755293</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04074042063393356</v>
+        <v>0.04043479290389587</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>27</v>
@@ -1982,19 +1982,19 @@
         <v>27887</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>19455</v>
+        <v>17981</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>41142</v>
+        <v>39021</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01689917635825617</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01178929730984267</v>
+        <v>0.01089643958120214</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02493135915636928</v>
+        <v>0.02364633118254387</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>113</v>
@@ -2003,19 +2003,19 @@
         <v>114778</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>94257</v>
+        <v>96900</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>137967</v>
+        <v>135908</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02689822870765125</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02208926832128182</v>
+        <v>0.0227086373525072</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03233276231467242</v>
+        <v>0.03185021297765282</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>2407322</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2379833</v>
+        <v>2376711</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2433492</v>
+        <v>2435088</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9199135417705477</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9094092401189899</v>
+        <v>0.9082161147505473</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9299139074537235</v>
+        <v>0.9305239626909517</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1446</v>
@@ -2053,19 +2053,19 @@
         <v>1570088</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1552153</v>
+        <v>1553251</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1587197</v>
+        <v>1586996</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9514509757222148</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.94058221825263</v>
+        <v>0.9412478728016177</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9618183599505457</v>
+        <v>0.9616968455886468</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3703</v>
@@ -2074,19 +2074,19 @@
         <v>3977410</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3938526</v>
+        <v>3944728</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4008768</v>
+        <v>4011682</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9321099151241378</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9229974795213471</v>
+        <v>0.9244509528339602</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9394586892074124</v>
+        <v>0.9401416578444811</v>
       </c>
     </row>
     <row r="23">
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6412</v>
+        <v>7062</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00472285501641012</v>
@@ -2429,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01500057264498701</v>
+        <v>0.01652191347429621</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7159</v>
+        <v>6856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01151258801093321</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04302001477596555</v>
+        <v>0.0411972211436433</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -2459,19 +2459,19 @@
         <v>3935</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9483</v>
+        <v>9006</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006625491720739019</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001669222221753379</v>
+        <v>0.001662978876000452</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01596843948678146</v>
+        <v>0.0151645982951177</v>
       </c>
     </row>
     <row r="5">
@@ -2504,7 +2504,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4802</v>
+        <v>5577</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006795962137547359</v>
@@ -2513,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02885552048674519</v>
+        <v>0.03351028895676136</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7013</v>
+        <v>5680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.001904382251048344</v>
@@ -2534,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01180920056062094</v>
+        <v>0.009564696519201636</v>
       </c>
     </row>
     <row r="6">
@@ -2551,19 +2551,19 @@
         <v>10319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5241</v>
+        <v>5274</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17553</v>
+        <v>18528</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02414183112652913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01226235337039971</v>
+        <v>0.0123378290504268</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04106445397208452</v>
+        <v>0.04334554933637853</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7305</v>
+        <v>7286</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01270513212389662</v>
@@ -2584,7 +2584,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04389939061795142</v>
+        <v>0.04378523200670978</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -2593,19 +2593,19 @@
         <v>12434</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6871</v>
+        <v>6355</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21664</v>
+        <v>20829</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02093700947649917</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01156956150401572</v>
+        <v>0.01070141431114398</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03648073126668515</v>
+        <v>0.03507492456109324</v>
       </c>
     </row>
     <row r="7">
@@ -2622,19 +2622,19 @@
         <v>415105</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>406691</v>
+        <v>405975</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>420288</v>
+        <v>421077</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9711353138570608</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9514512430399039</v>
+        <v>0.9497766637590153</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.983261205950006</v>
+        <v>0.9851059304194838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>156</v>
@@ -2643,19 +2643,19 @@
         <v>161251</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>155218</v>
+        <v>154175</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>164506</v>
+        <v>164537</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9689863177276228</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9327353264547219</v>
+        <v>0.9264681060106672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.988544916972806</v>
+        <v>0.9887326351878407</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>565</v>
@@ -2664,19 +2664,19 @@
         <v>576356</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>566192</v>
+        <v>567022</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>583624</v>
+        <v>583471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9705331165517135</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9534172247883789</v>
+        <v>0.9548154743599608</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.982771332717038</v>
+        <v>0.9825139728377247</v>
       </c>
     </row>
     <row r="8">
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6828</v>
+        <v>6886</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001195815053781883</v>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.004182587313175275</v>
+        <v>0.004217939739046602</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>6</v>
@@ -2789,19 +2789,19 @@
         <v>6332</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2522</v>
+        <v>2185</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13776</v>
+        <v>13912</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005742664660551994</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.00228767278532968</v>
+        <v>0.001981890463526565</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01249485869776101</v>
+        <v>0.01261806348628798</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -2810,19 +2810,19 @@
         <v>8284</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3925</v>
+        <v>3581</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>16626</v>
+        <v>16799</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003028731205577626</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001434975300523428</v>
+        <v>0.001309349899372298</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.006078922695775045</v>
+        <v>0.0061420202271861</v>
       </c>
     </row>
     <row r="10">
@@ -2839,19 +2839,19 @@
         <v>6751</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2902</v>
+        <v>2908</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13620</v>
+        <v>13463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004135008567331708</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.001777561317363528</v>
+        <v>0.001781253578320407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008342882033313051</v>
+        <v>0.008246821181538119</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2873,19 +2873,19 @@
         <v>6751</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2855</v>
+        <v>2873</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13426</v>
+        <v>12668</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.002468112882110232</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001043919375498245</v>
+        <v>0.00105027113907466</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.004908690061606566</v>
+        <v>0.004631704088912845</v>
       </c>
     </row>
     <row r="11">
@@ -2902,19 +2902,19 @@
         <v>9614</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4519</v>
+        <v>4754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18536</v>
+        <v>19036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.005888745509844091</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.002768238042622646</v>
+        <v>0.002911915410649159</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01135428889750855</v>
+        <v>0.01166071145198213</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -2923,19 +2923,19 @@
         <v>6788</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2912</v>
+        <v>2898</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>13396</v>
+        <v>14424</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006156784990107524</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.002641228299628724</v>
+        <v>0.002628406364512305</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01214994111552081</v>
+        <v>0.01308193962600027</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>16</v>
@@ -2944,19 +2944,19 @@
         <v>16402</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10639</v>
+        <v>9808</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26394</v>
+        <v>26222</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.005996797003775683</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003889773902793276</v>
+        <v>0.003585952902214238</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.009650073296275529</v>
+        <v>0.00958720951938723</v>
       </c>
     </row>
     <row r="12">
@@ -2973,19 +2973,19 @@
         <v>1614213</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1603898</v>
+        <v>1603782</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1620757</v>
+        <v>1620745</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9887804308690423</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.982462250351385</v>
+        <v>0.9823912165314546</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9927890999892831</v>
+        <v>0.9927817133873584</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1063</v>
@@ -2994,19 +2994,19 @@
         <v>1089445</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1080857</v>
+        <v>1080909</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1095096</v>
+        <v>1095437</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9881005503493405</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9803112465897725</v>
+        <v>0.9803585642933345</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9932257511457093</v>
+        <v>0.9935346841857652</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2581</v>
@@ -3015,19 +3015,19 @@
         <v>2703658</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2691163</v>
+        <v>2689912</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2714022</v>
+        <v>2713055</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9885063589085364</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9839380863335924</v>
+        <v>0.9834807185641796</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9922957330651626</v>
+        <v>0.9919421484633288</v>
       </c>
     </row>
     <row r="13">
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>5024</v>
+        <v>5427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.002231929231605409</v>
@@ -3144,7 +3144,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01114943293553838</v>
+        <v>0.01204309624851971</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5372</v>
+        <v>5632</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00104949119773102</v>
@@ -3165,7 +3165,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.005606110978587081</v>
+        <v>0.005876635736111796</v>
       </c>
     </row>
     <row r="15">
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11295</v>
+        <v>11350</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00373805078802513</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02224624768060358</v>
+        <v>0.02235609070025008</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10375</v>
+        <v>10801</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001980355542516805</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01082581932392353</v>
+        <v>0.01127065962498294</v>
       </c>
     </row>
     <row r="17">
@@ -3292,7 +3292,7 @@
         <v>505806</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>496409</v>
+        <v>496354</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>507704</v>
@@ -3301,7 +3301,7 @@
         <v>0.9962619492119749</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9777537523193964</v>
+        <v>0.9776439092997504</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>449614</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>445596</v>
+        <v>445193</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>450620</v>
@@ -3322,7 +3322,7 @@
         <v>0.9977680707683946</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9888505670644617</v>
+        <v>0.9879569037514806</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -3334,7 +3334,7 @@
         <v>955420</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>947796</v>
+        <v>946826</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>958324</v>
@@ -3343,7 +3343,7 @@
         <v>0.9969701532597521</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9890141673165173</v>
+        <v>0.988001841369609</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -3438,19 +3438,19 @@
         <v>3971</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1020</v>
+        <v>1032</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9149</v>
+        <v>10860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.001546517461334347</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0003971377254563169</v>
+        <v>0.0004019786203504484</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.003563103026371613</v>
+        <v>0.004229389144465009</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -3459,19 +3459,19 @@
         <v>9253</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4539</v>
+        <v>4605</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>16822</v>
+        <v>17997</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005381052817450845</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002639322045354138</v>
+        <v>0.002677748403281941</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.009782717642030488</v>
+        <v>0.01046554325674197</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>13</v>
@@ -3480,19 +3480,19 @@
         <v>13224</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7025</v>
+        <v>7739</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23517</v>
+        <v>22216</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0030845244242949</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.001638580465446285</v>
+        <v>0.001805122597664994</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.00548525815396167</v>
+        <v>0.005181888154156537</v>
       </c>
     </row>
     <row r="20">
@@ -3509,19 +3509,19 @@
         <v>6751</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2874</v>
+        <v>2821</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12745</v>
+        <v>13439</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002629039105507931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001119267508968669</v>
+        <v>0.001098600673556308</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.004963758023161021</v>
+        <v>0.005233857126124918</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5635</v>
+        <v>6800</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0006576697166462873</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.003276777787962173</v>
+        <v>0.003954531495665909</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>8</v>
@@ -3551,19 +3551,19 @@
         <v>7881</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>3743</v>
+        <v>3841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16592</v>
+        <v>15629</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.001838335782926705</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008731220989343969</v>
+        <v>0.0008960028948416965</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.003870157095869683</v>
+        <v>0.003645431614283198</v>
       </c>
     </row>
     <row r="21">
@@ -3580,19 +3580,19 @@
         <v>21831</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>13743</v>
+        <v>13917</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34540</v>
+        <v>34504</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.008502099092390273</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.005352193798836781</v>
+        <v>0.005419939067568177</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01345166317921243</v>
+        <v>0.01343790783303883</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -3601,19 +3601,19 @@
         <v>8903</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4154</v>
+        <v>4573</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>16955</v>
+        <v>16777</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.005177106825643591</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002415916593420215</v>
+        <v>0.002659092539917624</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.009859675386641377</v>
+        <v>0.00975660479698548</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>29</v>
@@ -3622,19 +3622,19 @@
         <v>30733</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20814</v>
+        <v>21528</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>44173</v>
+        <v>43790</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.007168466518136073</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.004854847243011711</v>
+        <v>0.005021383040330134</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01030327837521274</v>
+        <v>0.01021385890356791</v>
       </c>
     </row>
     <row r="22">
@@ -3651,19 +3651,19 @@
         <v>2535124</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2520506</v>
+        <v>2521464</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2544805</v>
+        <v>2545355</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9873223443407675</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9816294434647166</v>
+        <v>0.9820022792441422</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9910925867429548</v>
+        <v>0.9913070086320528</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1656</v>
@@ -3672,19 +3672,19 @@
         <v>1700310</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1689470</v>
+        <v>1690456</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1707637</v>
+        <v>1707564</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9887841706402593</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9824803927272837</v>
+        <v>0.9830538763409167</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9930448969348766</v>
+        <v>0.9930026284510789</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4045</v>
@@ -3693,19 +3693,19 @@
         <v>4235434</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4219054</v>
+        <v>4218696</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4249539</v>
+        <v>4248461</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9879086732746423</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.984088043474895</v>
+        <v>0.9840044173207662</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9911985961118457</v>
+        <v>0.9909472657202678</v>
       </c>
     </row>
     <row r="23">
